--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="238"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
   <si>
     <t>Datasets</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Hill-Valley</t>
   </si>
   <si>
-    <t>Too bad. Maybe problem with the dataset.</t>
-  </si>
-  <si>
     <t>Libras</t>
   </si>
   <si>
@@ -121,6 +118,51 @@
   </si>
   <si>
     <t>Totally 900 instances, but only training data (100 instances) is used. The improvement is ok.</t>
+  </si>
+  <si>
+    <t>Full features</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>SFS (greedy forward)</t>
+  </si>
+  <si>
+    <t>My method</t>
+  </si>
+  <si>
+    <t>Genetic</t>
+  </si>
+  <si>
+    <t>SBS (greedy backward)</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic </t>
+  </si>
+  <si>
+    <t>Comment:</t>
+  </si>
+  <si>
+    <t>GA use generation of 2000.</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>sonar: m_numAttribs * 0.4</t>
+  </si>
+  <si>
+    <t>Red column means bad dataset.</t>
+  </si>
+  <si>
+    <t>The attribute Data_Length has been removed.</t>
   </si>
 </sst>
 </file>
@@ -158,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -166,11 +208,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -182,6 +393,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>360</v>
@@ -716,213 +1011,196 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
-        <v>606</v>
+        <v>13910</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>13910</v>
+        <v>476</v>
       </c>
       <c r="D10" s="2">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1593</v>
+      </c>
+      <c r="D11" s="2">
+        <v>256</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>476</v>
-      </c>
-      <c r="D11" s="2">
-        <v>168</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
-        <v>1593</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>126</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="2">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
-        <v>2000</v>
+        <v>7352</v>
       </c>
       <c r="D14" s="2">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>7352</v>
+        <v>2000</v>
       </c>
       <c r="D15" s="2">
-        <v>561</v>
+        <v>649</v>
       </c>
       <c r="E15" s="2">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>649</v>
+        <v>1080</v>
+      </c>
+      <c r="D16" s="3">
+        <v>856</v>
       </c>
       <c r="E16" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="2">
-        <v>1080</v>
-      </c>
-      <c r="D17" s="3">
-        <v>856</v>
+        <v>6000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5000</v>
       </c>
       <c r="E17" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -933,24 +1211,1115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2">
+        <v>82.62</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>93.45</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>91.45</v>
+      </c>
+      <c r="I5" s="2">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2">
+        <v>93.16</v>
+      </c>
+      <c r="K5" s="2">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2">
+        <v>92.31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>128</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>168</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>256</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>310</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>500</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>561</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2">
+        <v>649</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>856</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8">
+        <v>77.62</v>
+      </c>
+      <c r="D3" s="8">
+        <v>92.97</v>
+      </c>
+      <c r="E3" s="19">
+        <v>82.62</v>
+      </c>
+      <c r="F3" s="8">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="G3" s="19">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="H3" s="8">
+        <v>91.66</v>
+      </c>
+      <c r="I3" s="8">
+        <v>62.78</v>
+      </c>
+      <c r="J3" s="8">
+        <v>57</v>
+      </c>
+      <c r="K3" s="8">
+        <v>75.209999999999994</v>
+      </c>
+      <c r="L3" s="8">
+        <v>85.94</v>
+      </c>
+      <c r="M3" s="8">
+        <v>56.35</v>
+      </c>
+      <c r="N3" s="8">
+        <v>58.53</v>
+      </c>
+      <c r="O3" s="8">
+        <v>76.77</v>
+      </c>
+      <c r="P3" s="8">
+        <v>95.35</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>93.15</v>
+      </c>
+      <c r="R3" s="8">
+        <v>91.63</v>
+      </c>
+      <c r="S3" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="36">
+        <v>90.38</v>
+      </c>
+      <c r="D4" s="36">
+        <v>97.54</v>
+      </c>
+      <c r="E4" s="35">
+        <v>93.45</v>
+      </c>
+      <c r="F4" s="36">
+        <v>87.46</v>
+      </c>
+      <c r="G4" s="35">
+        <v>81.73</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12">
+        <v>88.9</v>
+      </c>
+      <c r="D5" s="12">
+        <v>97.01</v>
+      </c>
+      <c r="E5" s="20">
+        <v>91.45</v>
+      </c>
+      <c r="F5" s="12">
+        <v>81.72</v>
+      </c>
+      <c r="G5" s="20">
+        <v>74.040000000000006</v>
+      </c>
+      <c r="H5" s="12">
+        <v>93.23</v>
+      </c>
+      <c r="I5" s="12">
+        <v>65.56</v>
+      </c>
+      <c r="J5" s="12">
+        <v>62.25</v>
+      </c>
+      <c r="K5" s="12">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="L5" s="12">
+        <v>86.44</v>
+      </c>
+      <c r="M5" s="12">
+        <v>90.48</v>
+      </c>
+      <c r="N5" s="12">
+        <v>63.03</v>
+      </c>
+      <c r="O5" s="12">
+        <v>94.15</v>
+      </c>
+      <c r="P5" s="12">
+        <v>98.6</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>94.26</v>
+      </c>
+      <c r="R5" s="12">
+        <v>94.52</v>
+      </c>
+      <c r="S5" s="23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12">
+        <v>90.05</v>
+      </c>
+      <c r="D6" s="12">
+        <v>96.13</v>
+      </c>
+      <c r="E6" s="20">
+        <v>92.31</v>
+      </c>
+      <c r="F6" s="12">
+        <v>80.33</v>
+      </c>
+      <c r="G6" s="20">
+        <v>74.040000000000006</v>
+      </c>
+      <c r="H6" s="12">
+        <v>93.51</v>
+      </c>
+      <c r="I6" s="12">
+        <v>64.44</v>
+      </c>
+      <c r="J6" s="12">
+        <v>66.13</v>
+      </c>
+      <c r="K6" s="12">
+        <v>79.41</v>
+      </c>
+      <c r="L6" s="12">
+        <v>87.63</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12">
+        <v>60.68</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="16">
+        <v>90.57</v>
+      </c>
+      <c r="D7" s="16">
+        <v>97.72</v>
+      </c>
+      <c r="E7" s="21">
+        <v>93.16</v>
+      </c>
+      <c r="F7" s="16">
+        <v>91.57</v>
+      </c>
+      <c r="G7" s="21">
+        <v>83.17</v>
+      </c>
+      <c r="H7" s="16">
+        <v>93.62</v>
+      </c>
+      <c r="I7" s="16">
+        <v>66.94</v>
+      </c>
+      <c r="J7" s="16">
+        <v>66.430000000000007</v>
+      </c>
+      <c r="K7" s="16">
+        <v>83.61</v>
+      </c>
+      <c r="L7" s="16">
+        <v>85.94</v>
+      </c>
+      <c r="M7" s="16">
+        <v>56.35</v>
+      </c>
+      <c r="N7" s="16">
+        <v>63.83</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
+        <v>97.05</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>95.65</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8">
+        <v>30</v>
+      </c>
+      <c r="E8" s="19">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8">
+        <v>57</v>
+      </c>
+      <c r="G8" s="19">
+        <v>60</v>
+      </c>
+      <c r="H8" s="8">
+        <v>64</v>
+      </c>
+      <c r="I8" s="8">
+        <v>90</v>
+      </c>
+      <c r="J8" s="8">
+        <v>128</v>
+      </c>
+      <c r="K8" s="8">
+        <v>166</v>
+      </c>
+      <c r="L8" s="8">
+        <v>256</v>
+      </c>
+      <c r="M8" s="8">
+        <v>309</v>
+      </c>
+      <c r="N8" s="8">
+        <v>500</v>
+      </c>
+      <c r="O8" s="8">
+        <v>561</v>
+      </c>
+      <c r="P8" s="8">
+        <v>649</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>856</v>
+      </c>
+      <c r="R8" s="8">
+        <v>5000</v>
+      </c>
+      <c r="S8" s="22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="36">
+        <v>7</v>
+      </c>
+      <c r="D9" s="36">
+        <v>9</v>
+      </c>
+      <c r="E9" s="35">
+        <v>8</v>
+      </c>
+      <c r="F9" s="36">
+        <v>19</v>
+      </c>
+      <c r="G9" s="35">
+        <v>15</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="37"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="20">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12">
+        <v>30</v>
+      </c>
+      <c r="I10" s="12">
+        <v>10</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12">
+        <v>7</v>
+      </c>
+      <c r="L10" s="12">
+        <v>35</v>
+      </c>
+      <c r="M10" s="12">
+        <v>6</v>
+      </c>
+      <c r="N10" s="12">
+        <v>6</v>
+      </c>
+      <c r="O10" s="12">
+        <v>35</v>
+      </c>
+      <c r="P10" s="12">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>79</v>
+      </c>
+      <c r="R10" s="12">
+        <v>15</v>
+      </c>
+      <c r="S10" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12">
+        <v>17</v>
+      </c>
+      <c r="E11" s="20">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12">
+        <v>49</v>
+      </c>
+      <c r="G11" s="20">
+        <v>42</v>
+      </c>
+      <c r="H11" s="12">
+        <v>39</v>
+      </c>
+      <c r="I11" s="12">
+        <v>80</v>
+      </c>
+      <c r="J11" s="12">
+        <v>40</v>
+      </c>
+      <c r="K11" s="12">
+        <v>116</v>
+      </c>
+      <c r="L11" s="12">
+        <v>228</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
+        <v>447</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="16">
+        <v>7</v>
+      </c>
+      <c r="D12" s="16">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21">
+        <v>13</v>
+      </c>
+      <c r="F12" s="16">
+        <v>26</v>
+      </c>
+      <c r="G12" s="21">
+        <v>18</v>
+      </c>
+      <c r="H12" s="16">
+        <v>33</v>
+      </c>
+      <c r="I12" s="16">
+        <v>35</v>
+      </c>
+      <c r="J12" s="16">
+        <v>25</v>
+      </c>
+      <c r="K12" s="16">
+        <v>63</v>
+      </c>
+      <c r="L12" s="16">
+        <v>112</v>
+      </c>
+      <c r="M12" s="16">
+        <v>105</v>
+      </c>
+      <c r="N12" s="16">
+        <v>226</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16">
+        <v>241</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>368</v>
+      </c>
+      <c r="R12" s="16"/>
+      <c r="S12" s="24">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="40"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>